--- a/Project/data/data.xlsx
+++ b/Project/data/data.xlsx
@@ -9,84 +9,84 @@
   <sheets>
     <sheet name="key_category" sheetId="1" r:id="rId1"/>
     <sheet name="name_category" sheetId="2" r:id="rId2"/>
-    <sheet name="key_category-count" sheetId="3" r:id="rId3"/>
-    <sheet name="source-category_count" sheetId="4" r:id="rId4"/>
-    <sheet name="key_category-count_day" sheetId="5" r:id="rId5"/>
-    <sheet name="source-key_category-count_day" sheetId="6" r:id="rId6"/>
-    <sheet name="key_category-avg" sheetId="7" r:id="rId7"/>
-    <sheet name="key_category-max" sheetId="8" r:id="rId8"/>
-    <sheet name="key_category-count-week_day" sheetId="9" r:id="rId9"/>
+    <sheet name="key_category_count" sheetId="3" r:id="rId3"/>
+    <sheet name="source_category_count" sheetId="4" r:id="rId4"/>
+    <sheet name="key_category_count_day" sheetId="5" r:id="rId5"/>
+    <sheet name="source_key_category_count_day" sheetId="6" r:id="rId6"/>
+    <sheet name="key_category_avg" sheetId="7" r:id="rId7"/>
+    <sheet name="key_category_max" sheetId="8" r:id="rId8"/>
+    <sheet name="key_category_count_week_day" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>key_category</t>
   </si>
   <si>
+    <t>russia</t>
+  </si>
+  <si>
     <t>society</t>
   </si>
   <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>business</t>
   </si>
   <si>
     <t>sport</t>
   </si>
   <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>russia</t>
+    <t>science</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>entertainment</t>
-  </si>
-  <si>
-    <t>science</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
     <t>name_category</t>
   </si>
   <si>
+    <t>Россия</t>
+  </si>
+  <si>
     <t>Общество</t>
   </si>
   <si>
+    <t>Культура</t>
+  </si>
+  <si>
+    <t>Мир</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
     <t>Экономика и бизнес</t>
   </si>
   <si>
     <t>Спорт</t>
   </si>
   <si>
-    <t>Мир</t>
-  </si>
-  <si>
-    <t>Россия</t>
+    <t>Наука и техника</t>
   </si>
   <si>
     <t>Неизвестно</t>
   </si>
   <si>
-    <t>Культура</t>
-  </si>
-  <si>
-    <t>Наука и техника</t>
-  </si>
-  <si>
-    <t>Здоровье</t>
-  </si>
-  <si>
     <t>Технологии</t>
   </si>
   <si>
@@ -114,13 +114,16 @@
     <t>max</t>
   </si>
   <si>
+    <t>28.12.2022</t>
+  </si>
+  <si>
+    <t>31.12.2022</t>
+  </si>
+  <si>
     <t>30.12.2022</t>
   </si>
   <si>
-    <t>27.12.2022</t>
-  </si>
-  <si>
-    <t>28.12.2022</t>
+    <t>29.12.2022</t>
   </si>
   <si>
     <t>day_of_week</t>
@@ -712,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -720,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -731,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -742,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -756,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -767,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -775,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -786,10 +789,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -797,10 +800,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -846,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -860,10 +863,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -874,10 +877,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -888,10 +891,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -905,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -916,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -930,10 +933,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -947,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -958,10 +961,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -972,10 +975,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -989,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1000,10 +1003,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1014,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1028,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1045,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1056,10 +1059,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1070,10 +1073,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1087,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1098,10 +1101,10 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1115,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1166,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1177,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1188,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1199,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1210,10 +1213,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1221,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1232,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1243,21 +1246,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,10 +1284,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1306,10 +1298,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1320,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1334,10 +1326,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1348,10 +1340,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1362,10 +1354,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1376,10 +1368,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1387,13 +1379,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1404,10 +1396,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1418,10 +1410,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1432,10 +1424,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1446,10 +1438,52 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1466,6 +1500,9 @@
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1492,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1503,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1514,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1525,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1539,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1547,10 +1584,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1558,10 +1595,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1572,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1580,10 +1617,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1594,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1635,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1646,10 +1683,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1657,10 +1694,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1671,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1679,10 +1716,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1690,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1704,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1712,10 +1749,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1736,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1758,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1772,13 +1809,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1786,13 +1823,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1800,13 +1837,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1814,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1828,10 +1865,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -1842,13 +1879,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1856,10 +1893,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1870,13 +1907,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1884,13 +1921,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1898,13 +1935,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1912,10 +1949,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1926,13 +1963,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1940,13 +1977,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1954,13 +1991,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1968,13 +2005,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1982,13 +2019,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1996,13 +2033,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2010,13 +2047,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2024,13 +2061,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2038,13 +2075,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>7</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2052,13 +2089,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2066,13 +2103,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2080,13 +2117,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2094,13 +2131,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2108,13 +2145,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2122,27 +2159,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
